--- a/Character Ascension Material 2.xlsx
+++ b/Character Ascension Material 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\Genshin-Statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA6B6C-F141-4DBD-AA80-555F084012A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3702E4-3933-4C1D-987E-2126EDDE2E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Pyro</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,67 @@
   </si>
   <si>
     <t>Phase 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪希雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑶瑶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>埃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-85W"/>
+        <family val="1"/>
+      </rPr>
+      <t>海森</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>九条裟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="汉仪文黑-65W"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱依拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提纳里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,17 +200,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="汉仪文黑-65W"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="汉仪文黑-65W"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -166,6 +227,20 @@
       <color theme="1"/>
       <name val="汉仪文黑-85W"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="汉仪文黑-65W"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,10 +263,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -250,76 +326,16 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Theme Font prototype">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="汉仪文黑-85W"/>
+        <a:ea typeface="汉仪文黑-65W"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
+        <a:latin typeface="汉仪文黑-85W"/>
+        <a:ea typeface="汉仪文黑-65W"/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,15 +488,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.77734375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="20.625" style="1"/>
+    <col min="1" max="16384" width="20.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -543,16 +559,16 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -560,22 +576,22 @@
         <v>15</v>
       </c>
       <c r="B4" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -586,25 +602,25 @@
         <v>16</v>
       </c>
       <c r="B5" s="1">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="F5" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H5" s="1">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -612,186 +628,250 @@
         <v>17</v>
       </c>
       <c r="B6" s="1">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="F6" s="1">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>187</v>
+        <v>220</v>
       </c>
       <c r="H6" s="1">
-        <v>145</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <f>SUM(B3*27+B4*9+B5*3+B6)</f>
-        <v>504</v>
+        <v>604</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ref="C7:H7" si="0">SUM(C3*27+C4*9+C5*3+C6)</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>1165</v>
+        <v>609</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
-        <v>943</v>
+        <v>880</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>256</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <f>B7-B9*271</f>
+        <v>333</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C7-C9*271</f>
+        <v>144</v>
+      </c>
+      <c r="D8" s="1">
+        <f>D7-D9*271</f>
+        <v>-800</v>
+      </c>
+      <c r="E8" s="1">
+        <f>E7-E9*271</f>
+        <v>338</v>
+      </c>
+      <c r="F8" s="1">
+        <f>F7-F9*271</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <f>G7-G9*271</f>
+        <v>338</v>
+      </c>
+      <c r="H8" s="1">
+        <f>H7-H9*271</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="1">
-        <v>3</v>
-      </c>
-      <c r="G11" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <f>SUM(C14*27+C15*9+C16*3+C17)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <f>SUM(C10*27+C11*9+C12*3+C13)</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:H14" si="1">SUM(D10*27+D11*9+D12*3+D13)</f>
+      <c r="D18" s="1">
+        <f t="shared" ref="D18:H18" si="1">SUM(D14*27+D15*9+D16*3+D17)</f>
         <v>9</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G18" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <f>SUM(B15,C14)</f>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <f>SUM(B19,C18)</f>
         <v>1</v>
       </c>
-      <c r="D15" s="1">
-        <f>SUM(C15,D14)</f>
+      <c r="D19" s="1">
+        <f>SUM(C19,D18)</f>
         <v>10</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" ref="E15:H15" si="2">SUM(D15,E14)</f>
+      <c r="E19" s="1">
+        <f t="shared" ref="E19:H19" si="2">SUM(D19,E18)</f>
         <v>28</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G19" s="1">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="2"/>
         <v>271</v>
       </c>
